--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D33B0D-509C-470A-AFCB-BA2273C87C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628D022-AA9F-4C62-915D-09FD3F439193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报关单表头" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,6 @@
     <t>t.ggrosswt}}</t>
   </si>
   <si>
-    <t>{{$fe:list1 t.main_bill_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.i_e_port</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -253,6 +249,10 @@
   </si>
   <si>
     <t>商品毛重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list2 t.main_bill_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +644,7 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
@@ -683,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -704,40 +704,40 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>10</v>
@@ -757,13 +757,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -841,7 +841,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -870,39 +870,39 @@
         <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>

--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628D022-AA9F-4C62-915D-09FD3F439193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830B111-89AB-4427-B9DE-3D16F322AFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报关单表头" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>总运单号</t>
   </si>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>{{$fe:list2 t.main_bill_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.party_bill_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +845,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -905,7 +909,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>

--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830B111-89AB-4427-B9DE-3D16F322AFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89499C82-1491-4D00-8509-438386700423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报关单表头" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>{{$fe:list t.main_bill_no</t>
-  </si>
-  <si>
     <t>t.bill_no</t>
   </si>
   <si>
@@ -257,6 +254,10 @@
   </si>
   <si>
     <t>t.party_bill_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list1 t.main_bill_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +649,8 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -687,13 +688,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -708,40 +709,40 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>10</v>
@@ -755,76 +756,76 @@
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>29</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>30</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>31</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>32</v>
-      </c>
-      <c r="X2" t="s">
-        <v>33</v>
       </c>
       <c r="Y2"/>
     </row>
@@ -844,7 +845,7 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -871,78 +872,78 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89499C82-1491-4D00-8509-438386700423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1371529-B2F5-4A27-87E8-D8EBC675C357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>总运单号</t>
   </si>
@@ -258,6 +258,13 @@
   </si>
   <si>
     <t>{{$fe:list1 t.main_bill_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转关运输工具名称</t>
+  </si>
+  <si>
+    <t>t.trans_traf_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -285,6 +292,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -334,6 +347,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -649,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -677,7 +691,7 @@
     <col min="20" max="20" width="21" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
     <col min="22" max="23" width="16.7109375" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
@@ -750,7 +764,10 @@
       <c r="W1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -824,10 +841,12 @@
       <c r="W2" t="s">
         <v>31</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1371529-B2F5-4A27-87E8-D8EBC675C357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC9446E-FC08-48CF-A27E-141F214A586D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC9446E-FC08-48CF-A27E-141F214A586D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="报关单表头" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>总运单号</t>
   </si>
@@ -29,9 +23,15 @@
     <t>分运单号</t>
   </si>
   <si>
+    <t>进出口岸</t>
+  </si>
+  <si>
     <t>进出口日期</t>
   </si>
   <si>
+    <t>抵运港</t>
+  </si>
+  <si>
     <t>运输工具名称</t>
   </si>
   <si>
@@ -44,27 +44,84 @@
     <t>货主单位名称</t>
   </si>
   <si>
+    <t>贸易国</t>
+  </si>
+  <si>
     <t>件数</t>
   </si>
   <si>
+    <t>毛重</t>
+  </si>
+  <si>
     <t>净重</t>
   </si>
   <si>
+    <t>包装种类</t>
+  </si>
+  <si>
+    <t>发件人</t>
+  </si>
+  <si>
+    <t>发件人地址</t>
+  </si>
+  <si>
+    <t>发件人电话</t>
+  </si>
+  <si>
+    <t>英文发件人</t>
+  </si>
+  <si>
+    <t>英文发件人地址</t>
+  </si>
+  <si>
+    <t>英文发件人城市</t>
+  </si>
+  <si>
+    <t>发件人国别</t>
+  </si>
+  <si>
+    <t>收件人</t>
+  </si>
+  <si>
+    <t>发件人城市</t>
+  </si>
+  <si>
+    <t>收件人证件类型</t>
+  </si>
+  <si>
     <t>收件人证件号</t>
   </si>
   <si>
+    <t>价值</t>
+  </si>
+  <si>
     <t>币制</t>
   </si>
   <si>
     <t>主要货物名称</t>
   </si>
   <si>
+    <t>转关运输工具名称</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
+    <t>{{$fe:list1 t.main_bill_no</t>
+  </si>
+  <si>
     <t>t.bill_no</t>
   </si>
   <si>
+    <t>t.i_e_port</t>
+  </si>
+  <si>
+    <t>t.i_e_date</t>
+  </si>
+  <si>
+    <t>t.depart_arrival_port</t>
+  </si>
+  <si>
     <t>t.traf_name</t>
   </si>
   <si>
@@ -95,12 +152,27 @@
     <t>t.send_name</t>
   </si>
   <si>
+    <t>t.send_address</t>
+  </si>
+  <si>
+    <t>t.send_tel</t>
+  </si>
+  <si>
+    <t>t.send_name_en</t>
+  </si>
+  <si>
+    <t>t.send_address_en</t>
+  </si>
+  <si>
+    <t>t.send_city_en</t>
+  </si>
+  <si>
+    <t>t.send_country</t>
+  </si>
+  <si>
     <t>t.receive_name</t>
   </si>
   <si>
-    <t>t.send_country</t>
-  </si>
-  <si>
     <t>t.send_city</t>
   </si>
   <si>
@@ -119,15 +191,48 @@
     <t>t.main_gname</t>
   </si>
   <si>
+    <t>t.trans_traf_name</t>
+  </si>
+  <si>
     <t>t.note_S}}</t>
   </si>
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>商品编号</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>产销国</t>
+  </si>
+  <si>
+    <t>成交总价</t>
+  </si>
+  <si>
+    <t>申报单价</t>
+  </si>
+  <si>
     <t>申报总价</t>
   </si>
   <si>
+    <t>申报数量</t>
+  </si>
+  <si>
+    <t>申报单位</t>
+  </si>
+  <si>
+    <t>商品毛重</t>
+  </si>
+  <si>
+    <t>{{$fe:list2 t.main_bill_no</t>
+  </si>
+  <si>
+    <t>t.party_bill_no</t>
+  </si>
+  <si>
     <t>t.index</t>
   </si>
   <si>
@@ -159,156 +264,393 @@
   </si>
   <si>
     <t>t.ggrosswt}}</t>
-  </si>
-  <si>
-    <t>t.i_e_port</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进出口岸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.i_e_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵运港</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.depart_arrival_port</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贸易国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装种类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人国别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人证件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产销国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交总价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品毛重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe:list2 t.main_bill_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.party_bill_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe:list1 t.main_bill_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转关运输工具名称</t>
-  </si>
-  <si>
-    <t>t.trans_traf_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -331,11 +673,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -347,24 +931,74 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -651,50 +1285,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1388888888889" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.287037037037" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="19.4259259259259" customWidth="1"/>
+    <col min="9" max="9" width="24.4259259259259" customWidth="1"/>
+    <col min="10" max="10" width="13.8518518518519" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.1388888888889" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.287037037037" style="2" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="21" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="23" width="16.7109375" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" customWidth="1"/>
+    <col min="15" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="17.712962962963" customWidth="1"/>
+    <col min="23" max="23" width="18.4259259259259" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="21" customWidth="1"/>
+    <col min="27" max="27" width="17" customWidth="1"/>
+    <col min="28" max="29" width="16.712962962963" customWidth="1"/>
+    <col min="30" max="30" width="19.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" ht="15" spans="1:31">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -702,165 +1335,200 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:31">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="U2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AD2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -868,22 +1536,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.1388888888889" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="14.1388888888889" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" ht="15" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -891,84 +1559,83 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="10308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="报关单表头" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>总运单号</t>
   </si>
@@ -227,6 +227,12 @@
     <t>商品毛重</t>
   </si>
   <si>
+    <t>收件人地址</t>
+  </si>
+  <si>
+    <t>收件人电话</t>
+  </si>
+  <si>
     <t>{{$fe:list2 t.main_bill_no</t>
   </si>
   <si>
@@ -263,7 +269,16 @@
     <t>t.g_unit</t>
   </si>
   <si>
-    <t>t.ggrosswt}}</t>
+    <t>t.ggrosswt</t>
+  </si>
+  <si>
+    <t>t.receive_address</t>
+  </si>
+  <si>
+    <t>t.receive_tel</t>
+  </si>
+  <si>
+    <t>t.id_no}}</t>
   </si>
 </sst>
 </file>
@@ -272,12 +287,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -289,16 +304,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -306,6 +311,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -313,12 +332,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -327,71 +353,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,44 +393,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -465,19 +470,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +572,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +602,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,43 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,91 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,15 +675,6 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +705,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -724,6 +729,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -735,15 +749,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,10 +782,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,133 +794,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -931,13 +936,13 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1292,12 +1297,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1528,12 +1533,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1549,9 +1554,13 @@
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.3240740740741" customWidth="1"/>
+    <col min="16" max="16" width="15.7777777777778" customWidth="1"/>
+    <col min="17" max="17" width="18.3888888888889" customWidth="1"/>
+    <col min="18" max="18" width="16.9259259259259" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
+    <row r="1" ht="15" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1591,46 +1600,76 @@
       <c r="M1" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -140,7 +140,7 @@
     <t>t.pack_no</t>
   </si>
   <si>
-    <t>t.gross_wt</t>
+    <t>t.weight</t>
   </si>
   <si>
     <t>t.net_weight</t>
@@ -311,6 +311,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -318,6 +325,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -325,45 +376,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,84 +454,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,31 +470,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,151 +638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +675,54 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,39 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -753,174 +768,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:Z2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1537,8 +1537,8 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1554,6 +1554,7 @@
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
     <col min="15" max="15" width="16.3240740740741" customWidth="1"/>
     <col min="16" max="16" width="15.7777777777778" customWidth="1"/>
     <col min="17" max="17" width="18.3888888888889" customWidth="1"/>

--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>

--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10308" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="报关单表头" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>{{$fe:list1 t.main_bill_no</t>
+    <t>{{$fe:list t.main_bill_no</t>
   </si>
   <si>
     <t>t.bill_no</t>
@@ -287,9 +287,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="23">
@@ -311,12 +311,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -324,37 +392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,67 +408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -437,25 +416,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,31 +470,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,151 +632,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,45 +675,6 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,11 +705,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,156 +756,171 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1537,7 +1537,7 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="K1" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/tp/_export_bgd_z_main_data.xlsx
+++ b/src/main/resources/tp/_export_bgd_z_main_data.xlsx
@@ -107,7 +107,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>{{$fe:list t.main_bill_no</t>
+    <t>{{$fe:list1 t.main_bill_no</t>
   </si>
   <si>
     <t>t.bill_no</t>
@@ -286,10 +286,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
   <fonts count="23">
@@ -311,14 +311,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -332,130 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,25 +470,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,157 +644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,11 +679,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,37 +709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,171 +742,185 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelRow="1"/>
